--- a/data/trans_bre/P23_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Provincia-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-22.33209191446603</v>
+        <v>-22.5609706164098</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-20.45147708602483</v>
+        <v>-20.80749832090553</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-19.39386482420622</v>
+        <v>-19.10452577334622</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4834302431701854</v>
+        <v>-0.4965222562835656</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4066690010399565</v>
+        <v>-0.4190965463441008</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4768197829833711</v>
+        <v>-0.4658641629376202</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-5.356388055606772</v>
+        <v>-5.920720536020474</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.533068781217844</v>
+        <v>-3.885139663446104</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.938173104339424</v>
+        <v>-2.7936514786036</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.1501202225002645</v>
+        <v>-0.1599567645334552</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.08603420558793595</v>
+        <v>-0.08679616841967072</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1210845029050116</v>
+        <v>-0.0884367517760838</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-21.65991929025386</v>
+        <v>-21.6360426224281</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-18.43453089379836</v>
+        <v>-18.69301468112223</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-20.2376174159191</v>
+        <v>-20.84316078318437</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5033146087970627</v>
+        <v>-0.5092163818277777</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4174403829345541</v>
+        <v>-0.418523042322798</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4575440491759176</v>
+        <v>-0.4587400023811696</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-9.45835817919513</v>
+        <v>-8.99557646275492</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-5.850156383403183</v>
+        <v>-6.367995612538349</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-8.638006337136503</v>
+        <v>-9.110238911519131</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2608075129068733</v>
+        <v>-0.2558557577747991</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1544339608641921</v>
+        <v>-0.1711492401193427</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2259501965198277</v>
+        <v>-0.2294071046982511</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-25.14619212684878</v>
+        <v>-25.83037276439471</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-20.8377174459104</v>
+        <v>-21.16691144186566</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-12.67093874606254</v>
+        <v>-12.60883572601208</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.5017651333875575</v>
+        <v>-0.504993993511107</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4890395431355261</v>
+        <v>-0.4869988063929203</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3825767245275378</v>
+        <v>-0.3768558546856483</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-10.69825627021681</v>
+        <v>-11.1303051551057</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.738456450149225</v>
+        <v>-6.060746571492746</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3639158951407374</v>
+        <v>0.8097188769137136</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.254337300592706</v>
+        <v>-0.2600308367959454</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1708815667165724</v>
+        <v>-0.1709242911805475</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01391243246602018</v>
+        <v>0.02903344594186461</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-26.52919164560966</v>
+        <v>-25.75511427574119</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-15.02441048942767</v>
+        <v>-15.46314200060908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-16.64029087631781</v>
+        <v>-17.51719957602977</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5142672743560915</v>
+        <v>-0.5126664679748558</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3865790687143433</v>
+        <v>-0.3944902009929966</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4026440930013085</v>
+        <v>-0.4189867529531725</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-12.14314997788324</v>
+        <v>-12.77923491503123</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.025037234427815</v>
+        <v>-0.8259681481158574</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-3.070773775678983</v>
+        <v>-3.781446213840034</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2794839682910442</v>
+        <v>-0.2888597952744434</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.03407206664420007</v>
+        <v>-0.02004806909371133</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0891703581031815</v>
+        <v>-0.1062640118278703</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-22.53858201879451</v>
+        <v>-21.74746261853415</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-22.85823618315976</v>
+        <v>-22.52309995559555</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-23.16866521818824</v>
+        <v>-22.75111695472199</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.4814306644464604</v>
+        <v>-0.4770127943028459</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4726218084843852</v>
+        <v>-0.4783529949460589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5234713566438114</v>
+        <v>-0.507581789600049</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.06682320228037</v>
+        <v>-2.828737023687882</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.030730578173277</v>
+        <v>-4.527000148492894</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-5.370851191195295</v>
+        <v>-5.185900600177067</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.08223009553937691</v>
+        <v>-0.07476104130998407</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1045307483415945</v>
+        <v>-0.1134008879853617</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1481932808773534</v>
+        <v>-0.1539154533858145</v>
       </c>
     </row>
     <row r="19">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-31.62019969842038</v>
+        <v>-30.50468367228127</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-13.74113816224227</v>
+        <v>-14.05421239480652</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-14.73821114321423</v>
+        <v>-15.2203137319948</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6182492137304011</v>
+        <v>-0.6147387987498257</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4049045814201545</v>
+        <v>-0.4099565079982961</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3971457615682388</v>
+        <v>-0.403324856408898</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-15.35566810874543</v>
+        <v>-15.44028856576453</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.170538853482022</v>
+        <v>1.204778733893849</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.345929722153069</v>
+        <v>0.09106030912774789</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.363491028974595</v>
+        <v>-0.3610221230238461</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05321168337716369</v>
+        <v>0.05249978452285008</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04810883108474743</v>
+        <v>0.01311169141517684</v>
       </c>
     </row>
     <row r="22">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.59099403734364</v>
+        <v>-18.01593361737681</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-19.56656960749243</v>
+        <v>-19.37335083427954</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.55044912555223</v>
+        <v>-11.10153672105566</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.4413864864615407</v>
+        <v>-0.4483854653872014</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4363936667029313</v>
+        <v>-0.4321479564220738</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.315744887005878</v>
+        <v>-0.3285740251630797</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-7.286164632420365</v>
+        <v>-7.720112720849088</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-8.46672221869958</v>
+        <v>-8.908599186671998</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.3249892265731509</v>
+        <v>-0.5289080730949651</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.215102311344234</v>
+        <v>-0.2184590429864831</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.2135716520773022</v>
+        <v>-0.2289733261340524</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.0140091682332503</v>
+        <v>-0.01704963801580115</v>
       </c>
     </row>
     <row r="25">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-23.87378740683717</v>
+        <v>-23.81270156022962</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-17.74654736968968</v>
+        <v>-17.53623852463303</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-11.49432472304119</v>
+        <v>-11.28687065772813</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5243795235289155</v>
+        <v>-0.5237395786594817</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4387156449589804</v>
+        <v>-0.4302569528596506</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3318187817974234</v>
+        <v>-0.3212617733160585</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-14.13609920395409</v>
+        <v>-13.83377304334847</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-7.804729441008838</v>
+        <v>-8.050871576450522</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-2.215459105626302</v>
+        <v>-2.325578225774052</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.3542920158717529</v>
+        <v>-0.3394802376718296</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.2206489517466057</v>
+        <v>-0.2225361388833673</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.0770673327732749</v>
+        <v>-0.07605418318119982</v>
       </c>
     </row>
     <row r="28">
@@ -1294,22 +1294,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-19.02802469529953</v>
+        <v>-18.95810947138029</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.31758902929715</v>
+        <v>-14.33874096505117</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.33305298488184</v>
+        <v>-11.22544850200932</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.4374454969952593</v>
+        <v>-0.4376132489729002</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.3540848749110742</v>
+        <v>-0.3540183939197776</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.3115722298240422</v>
+        <v>-0.3090116528548988</v>
       </c>
     </row>
     <row r="30">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-14.47981802580964</v>
+        <v>-14.20459773446874</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-9.79964614406064</v>
+        <v>-9.752369165109251</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-6.53579949167796</v>
+        <v>-6.707637074891282</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>-0.3524743790524191</v>
+        <v>-0.3484231314832267</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.2525886336661672</v>
+        <v>-0.2540189796406188</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.1927896401100834</v>
+        <v>-0.196032906065613</v>
       </c>
     </row>
     <row r="31">
